--- a/402/data/Balmer/h.xlsx
+++ b/402/data/Balmer/h.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="54">
   <si>
     <t>n</t>
   </si>
@@ -134,9 +134,6 @@
     <t>x/Skt</t>
   </si>
   <si>
-    <t>lambda</t>
-  </si>
-  <si>
     <t>dlambda</t>
   </si>
   <si>
@@ -156,6 +153,33 @@
   </si>
   <si>
     <t>dsin(beta)</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>dalpha</t>
+  </si>
+  <si>
+    <t>sin(alpha)</t>
+  </si>
+  <si>
+    <t>dsin(alpha)</t>
+  </si>
+  <si>
+    <t>dlambda/dbeta</t>
+  </si>
+  <si>
+    <t>ddl/db</t>
+  </si>
+  <si>
+    <t>ddlambda</t>
   </si>
 </sst>
 </file>
@@ -351,11 +375,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="244587520"/>
-        <c:axId val="244609792"/>
+        <c:axId val="238689280"/>
+        <c:axId val="238711552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="244587520"/>
+        <c:axId val="238689280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -365,12 +389,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="244609792"/>
+        <c:crossAx val="238711552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="244609792"/>
+        <c:axId val="238711552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -381,7 +405,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="244587520"/>
+        <c:crossAx val="238689280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -534,11 +558,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="245581696"/>
-        <c:axId val="245583232"/>
+        <c:axId val="220481408"/>
+        <c:axId val="220482944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="245581696"/>
+        <c:axId val="220481408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -548,12 +572,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="245583232"/>
+        <c:crossAx val="220482944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="245583232"/>
+        <c:axId val="220482944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -564,7 +588,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="245581696"/>
+        <c:crossAx val="220481408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -717,11 +741,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="245719808"/>
-        <c:axId val="245721344"/>
+        <c:axId val="220619520"/>
+        <c:axId val="220621056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="245719808"/>
+        <c:axId val="220619520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -731,12 +755,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="245721344"/>
+        <c:crossAx val="220621056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="245721344"/>
+        <c:axId val="220621056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -747,7 +771,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="245719808"/>
+        <c:crossAx val="220619520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -900,11 +924,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="245747072"/>
-        <c:axId val="245757056"/>
+        <c:axId val="220652672"/>
+        <c:axId val="220654208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="245747072"/>
+        <c:axId val="220652672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -914,12 +938,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="245757056"/>
+        <c:crossAx val="220654208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="245757056"/>
+        <c:axId val="220654208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -930,7 +954,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="245747072"/>
+        <c:crossAx val="220652672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -966,7 +990,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -980,7 +1003,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'236_rc'!$N$4</c:f>
+              <c:f>'236_rc'!$R$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -999,84 +1022,53 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'236_rc'!$L$5:$L$24</c:f>
+              <c:f>'236_rc'!$P$5:$P$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.98048882523243841</c:v>
+                  <c:v>1.5824802304724477</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1.1893666385365664</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0662603771940942</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0521618198523415</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.99497715615565019</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0578109181950948</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0606306382527961</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0662603771940942</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.1973211468067189</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.3273511432133227</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.4013156773779141</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.4082592475616698</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.0007513341375915</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'236_rc'!$N$5:$N$24</c:f>
+              <c:f>'236_rc'!$R$5:$R$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>404.65600000000001</c:v>
+                  <c:v>782.74838979974186</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>407.78300000000002</c:v>
+                  <c:v>527.37354509276281</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>433.92200000000003</c:v>
+                  <c:v>447.40113249320461</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>434.74900000000002</c:v>
+                  <c:v>438.24241357429787</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>435.83300000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>546.07399999999996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>578.01300000000003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>671.64300000000003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>690.75199999999995</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>410.80500000000001</c:v>
+                  <c:v>401.09405515898959</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1091,11 +1083,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="245782400"/>
-        <c:axId val="245783936"/>
+        <c:axId val="220593536"/>
+        <c:axId val="220677248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="245782400"/>
+        <c:axId val="220593536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1105,12 +1097,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="245783936"/>
+        <c:crossAx val="220677248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="245783936"/>
+        <c:axId val="220677248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1121,14 +1113,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="245782400"/>
+        <c:crossAx val="220593536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1293,13 +1284,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -4845,10 +4836,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:O24"/>
+  <dimension ref="C4:W24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA28" sqref="AA28"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4856,606 +4847,557 @@
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>0</v>
       </c>
       <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4" t="s">
+        <v>3</v>
+      </c>
+      <c r="S4" t="s">
+        <v>4</v>
+      </c>
+      <c r="T4" t="s">
+        <v>51</v>
+      </c>
+      <c r="U4" t="s">
+        <v>52</v>
+      </c>
+      <c r="V4" t="s">
         <v>38</v>
       </c>
-      <c r="E4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" t="s">
-        <v>2</v>
-      </c>
-      <c r="N4" t="s">
-        <v>3</v>
-      </c>
-      <c r="O4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="W4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>404.65600000000001</v>
+        <v>0.1</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F5">
-        <v>45.5</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>0.5</v>
       </c>
       <c r="H5">
+        <f>F5*PI()/180</f>
+        <v>1.2217304763960306</v>
+      </c>
+      <c r="I5">
+        <f>G5*PI()/180</f>
+        <v>8.7266462599716477E-3</v>
+      </c>
+      <c r="J5">
         <f>(F5-30)*PI()/180</f>
-        <v>0.27052603405912107</v>
-      </c>
-      <c r="I5">
+        <v>0.69813170079773179</v>
+      </c>
+      <c r="K5">
         <f>SQRT(2)*G5*PI()/180</f>
         <v>1.2341341494884351E-2</v>
       </c>
-      <c r="J5">
-        <f>SIN(H5)</f>
-        <v>0.26723837607825685</v>
-      </c>
-      <c r="K5">
-        <f>COS(H5)*G5</f>
-        <v>0.48181522660431148</v>
-      </c>
-      <c r="L5" s="3">
-        <f>J5+SIN(F5/180*PI())</f>
-        <v>0.98048882523243841</v>
-      </c>
-      <c r="M5" s="3">
-        <f>SQRT(K5*K5+COS(F5*PI()/180)^2*(G5*PI()/180)^2)</f>
-        <v>0.48185404971511875</v>
-      </c>
-      <c r="N5" s="3">
-        <f>D5</f>
-        <v>404.65600000000001</v>
-      </c>
-      <c r="O5" s="3">
-        <f>E5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <f t="shared" ref="L5:L9" si="0">SIN(H5)</f>
+        <v>0.93969262078590832</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:M9" si="1">COS(H5)*I5</f>
+        <v>2.9846888045879146E-3</v>
+      </c>
+      <c r="N5">
+        <f>SIN(J5)</f>
+        <v>0.64278760968653925</v>
+      </c>
+      <c r="O5">
+        <f>COS(J5)*G5</f>
+        <v>0.38302222155948901</v>
+      </c>
+      <c r="P5" s="3">
+        <f>N5+L5</f>
+        <v>1.5824802304724477</v>
+      </c>
+      <c r="Q5" s="3">
+        <f>SQRT(O5*O5+M5^2)</f>
+        <v>0.38303385043051547</v>
+      </c>
+      <c r="R5" s="3">
+        <f>649.621*P5-245.264</f>
+        <v>782.74838979974186</v>
+      </c>
+      <c r="S5" s="3">
+        <f>SQRT(R5^2*((Q5/P5)^2+(36.27/649.621)^2)+42.7^2)</f>
+        <v>199.07008999583732</v>
+      </c>
+      <c r="T5">
+        <f>649.621*COS(J5)</f>
+        <v>497.63855718339363</v>
+      </c>
+      <c r="U5">
+        <f>T5*SQRT((36.27/649.621)^2+(N5*K5)^2)</f>
+        <v>28.063481181641748</v>
+      </c>
+      <c r="V5">
+        <f>T5*D5*PI()/180</f>
+        <v>0.86854313077242973</v>
+      </c>
+      <c r="W5">
+        <f>V5*SQRT((U5/T5)^2+(E5/F5)^2)</f>
+        <v>4.8983943423305441E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>407.78300000000002</v>
+        <v>0.3</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F6">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G6">
         <v>0.5</v>
       </c>
       <c r="H6">
-        <f t="shared" ref="H6:H14" si="0">(F6-30)*PI()/180</f>
-        <v>0.27925268031909273</v>
+        <f t="shared" ref="H6:H9" si="2">F6*PI()/180</f>
+        <v>0.92502450355699462</v>
       </c>
       <c r="I6">
-        <f t="shared" ref="I6:I14" si="1">SQRT(2)*G6*PI()/180</f>
+        <f t="shared" ref="I6:I9" si="3">G6*PI()/180</f>
+        <v>8.7266462599716477E-3</v>
+      </c>
+      <c r="J6">
+        <f>(F6-30)*PI()/180</f>
+        <v>0.40142572795869574</v>
+      </c>
+      <c r="K6">
+        <f>SQRT(2)*G6*PI()/180</f>
         <v>1.2341341494884351E-2</v>
       </c>
-      <c r="J6">
-        <f t="shared" ref="J6:J14" si="2">SIN(H6)</f>
-        <v>0.27563735581699916</v>
-      </c>
-      <c r="K6">
-        <f t="shared" ref="K6:K14" si="3">COS(H6)*G6</f>
-        <v>0.48063084796915945</v>
-      </c>
-      <c r="L6" s="3">
-        <f t="shared" ref="L6:L14" si="4">J6+SIN(F6/180*PI())</f>
-        <v>0.99497715615565019</v>
-      </c>
-      <c r="M6" s="3">
-        <f t="shared" ref="M6:M14" si="5">SQRT(K6*K6+COS(F6*PI()/180)^2*(G6*PI()/180)^2)</f>
-        <v>0.48066907568793826</v>
-      </c>
-      <c r="N6" s="3">
-        <f t="shared" ref="N6:N14" si="6">D6</f>
-        <v>407.78300000000002</v>
-      </c>
-      <c r="O6" s="3">
-        <f t="shared" ref="O6:O14" si="7">E6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>0.79863551004729283</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>5.251826820984574E-3</v>
+      </c>
+      <c r="N6">
+        <f>SIN(J6)</f>
+        <v>0.39073112848927372</v>
+      </c>
+      <c r="O6">
+        <f>COS(J6)*G6</f>
+        <v>0.46025242672622019</v>
+      </c>
+      <c r="P6" s="3">
+        <f t="shared" ref="P6:P9" si="4">N6+L6</f>
+        <v>1.1893666385365664</v>
+      </c>
+      <c r="Q6" s="3">
+        <f t="shared" ref="Q6:Q9" si="5">SQRT(O6*O6+M6^2)</f>
+        <v>0.46028238940060728</v>
+      </c>
+      <c r="R6" s="3">
+        <f t="shared" ref="R6:R9" si="6">649.621*P6-245.264</f>
+        <v>527.37354509276281</v>
+      </c>
+      <c r="S6" s="3">
+        <f t="shared" ref="S6:S9" si="7">SQRT(R6^2*((Q6/P6)^2+(36.27/649.621)^2)+42.7^2)</f>
+        <v>210.58016239254675</v>
+      </c>
+      <c r="T6">
+        <f t="shared" ref="T6:T9" si="8">649.621*COS(J6)</f>
+        <v>597.97928340462772</v>
+      </c>
+      <c r="U6">
+        <f t="shared" ref="U6:U9" si="9">T6*SQRT((36.27/649.621)^2+(N6*K6)^2)</f>
+        <v>33.511002630607479</v>
+      </c>
+      <c r="V6">
+        <f t="shared" ref="V6:V9" si="10">T6*D6*PI()/180</f>
+        <v>3.1310122062381121</v>
+      </c>
+      <c r="W6">
+        <f t="shared" ref="W6:W9" si="11">V6*SQRT((U6/T6)^2+(E6/F6)^2)</f>
+        <v>0.17548806002906109</v>
+      </c>
+    </row>
+    <row r="7" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>3</v>
       </c>
-      <c r="D7">
-        <v>433.92200000000003</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
       <c r="F7">
-        <v>48.2</v>
+        <v>48.5</v>
       </c>
       <c r="G7">
         <v>0.5</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
-        <v>0.31764992386296803</v>
+        <f t="shared" si="2"/>
+        <v>0.84648468721724979</v>
       </c>
       <c r="I7">
+        <f t="shared" si="3"/>
+        <v>8.7266462599716477E-3</v>
+      </c>
+      <c r="J7">
+        <f>(F7-30)*PI()/180</f>
+        <v>0.32288591161895097</v>
+      </c>
+      <c r="K7">
+        <f>SQRT(2)*G7*PI()/180</f>
+        <v>1.2341341494884351E-2</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>0.74895572078900208</v>
+      </c>
+      <c r="M7">
         <f t="shared" si="1"/>
-        <v>1.2341341494884351E-2</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="2"/>
-        <v>0.31233491851223261</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="3"/>
-        <v>0.47498602576232624</v>
-      </c>
-      <c r="L7" s="3">
+        <v>5.7824507655440983E-3</v>
+      </c>
+      <c r="N7">
+        <f>SIN(J7)</f>
+        <v>0.31730465640509214</v>
+      </c>
+      <c r="O7">
+        <f>COS(J7)*G7</f>
+        <v>0.47416182760309966</v>
+      </c>
+      <c r="P7" s="3">
         <f t="shared" si="4"/>
-        <v>1.0578109181950948</v>
-      </c>
-      <c r="M7" s="3">
+        <v>1.0662603771940942</v>
+      </c>
+      <c r="Q7" s="3">
         <f t="shared" si="5"/>
-        <v>0.47502163890148014</v>
-      </c>
-      <c r="N7" s="3">
+        <v>0.47419708507409397</v>
+      </c>
+      <c r="R7" s="3">
         <f t="shared" si="6"/>
-        <v>433.92200000000003</v>
-      </c>
-      <c r="O7" s="3">
+        <v>447.40113249320461</v>
+      </c>
+      <c r="S7" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
+        <v>205.02989147935753</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="8"/>
+        <v>616.05096121870645</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="9"/>
+        <v>34.480196433790574</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>4</v>
       </c>
-      <c r="D8">
-        <v>434.74900000000002</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
       <c r="F8">
-        <v>48.3</v>
+        <v>48</v>
       </c>
       <c r="G8">
         <v>0.5</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
-        <v>0.31939525311496225</v>
+        <f t="shared" si="2"/>
+        <v>0.83775804095727813</v>
       </c>
       <c r="I8">
+        <f t="shared" si="3"/>
+        <v>8.7266462599716477E-3</v>
+      </c>
+      <c r="J8">
+        <f>(F8-30)*PI()/180</f>
+        <v>0.31415926535897931</v>
+      </c>
+      <c r="K8">
+        <f>SQRT(2)*G8*PI()/180</f>
+        <v>1.2341341494884351E-2</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>0.74314482547739413</v>
+      </c>
+      <c r="M8">
         <f t="shared" si="1"/>
-        <v>1.2341341494884351E-2</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="2"/>
-        <v>0.31399245596740488</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="3"/>
-        <v>0.47471273882095194</v>
-      </c>
-      <c r="L8" s="3">
+        <v>5.8392661034140907E-3</v>
+      </c>
+      <c r="N8">
+        <f>SIN(J8)</f>
+        <v>0.3090169943749474</v>
+      </c>
+      <c r="O8">
+        <f>COS(J8)*G8</f>
+        <v>0.47552825814757677</v>
+      </c>
+      <c r="P8" s="3">
         <f t="shared" si="4"/>
-        <v>1.0606306382527961</v>
-      </c>
-      <c r="M8" s="3">
+        <v>1.0521618198523415</v>
+      </c>
+      <c r="Q8" s="3">
         <f t="shared" si="5"/>
-        <v>0.47474823337647615</v>
-      </c>
-      <c r="N8" s="3">
+        <v>0.47556410853374426</v>
+      </c>
+      <c r="R8" s="3">
         <f t="shared" si="6"/>
-        <v>434.74900000000002</v>
-      </c>
-      <c r="O8" s="3">
+        <v>438.24241357429787</v>
+      </c>
+      <c r="S8" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
+        <v>204.10224194616603</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="8"/>
+        <v>617.82628517217393</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="9"/>
+        <v>34.575197008094129</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>5</v>
       </c>
-      <c r="D9">
-        <v>435.83300000000003</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
       <c r="F9">
-        <v>48.5</v>
+        <v>46</v>
       </c>
       <c r="G9">
         <v>0.5</v>
       </c>
       <c r="H9">
-        <f t="shared" si="0"/>
-        <v>0.32288591161895097</v>
+        <f t="shared" si="2"/>
+        <v>0.80285145591739149</v>
       </c>
       <c r="I9">
+        <f t="shared" si="3"/>
+        <v>8.7266462599716477E-3</v>
+      </c>
+      <c r="J9">
+        <f>(F9-30)*PI()/180</f>
+        <v>0.27925268031909273</v>
+      </c>
+      <c r="K9">
+        <f>SQRT(2)*G9*PI()/180</f>
+        <v>1.2341341494884351E-2</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>0.71933980033865108</v>
+      </c>
+      <c r="M9">
         <f t="shared" si="1"/>
-        <v>1.2341341494884351E-2</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="2"/>
-        <v>0.31730465640509214</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="3"/>
-        <v>0.47416182760309966</v>
-      </c>
-      <c r="L9" s="3">
+        <v>6.0620378705240089E-3</v>
+      </c>
+      <c r="N9">
+        <f>SIN(J9)</f>
+        <v>0.27563735581699916</v>
+      </c>
+      <c r="O9">
+        <f>COS(J9)*G9</f>
+        <v>0.48063084796915945</v>
+      </c>
+      <c r="P9" s="3">
         <f t="shared" si="4"/>
-        <v>1.0662603771940942</v>
-      </c>
-      <c r="M9" s="3">
+        <v>0.99497715615565019</v>
+      </c>
+      <c r="Q9" s="3">
         <f t="shared" si="5"/>
-        <v>0.47419708507409397</v>
-      </c>
-      <c r="N9" s="3">
+        <v>0.48066907568793826</v>
+      </c>
+      <c r="R9" s="3">
         <f t="shared" si="6"/>
-        <v>435.83300000000003</v>
-      </c>
-      <c r="O9" s="3">
+        <v>401.09405515898959</v>
+      </c>
+      <c r="S9" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C10">
-        <v>6</v>
-      </c>
-      <c r="D10">
-        <v>546.07399999999996</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>53.3</v>
-      </c>
-      <c r="G10">
-        <v>0.5</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="0"/>
-        <v>0.40666171571467868</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="1"/>
-        <v>1.2341341494884351E-2</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="2"/>
-        <v>0.39554550256296483</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="3"/>
-        <v>0.4592231906715436</v>
-      </c>
-      <c r="L10" s="3">
-        <f t="shared" si="4"/>
-        <v>1.1973211468067189</v>
-      </c>
-      <c r="M10" s="3">
-        <f t="shared" si="5"/>
-        <v>0.45925280382525535</v>
-      </c>
-      <c r="N10" s="3">
-        <f t="shared" si="6"/>
-        <v>546.07399999999996</v>
-      </c>
-      <c r="O10" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C11">
-        <v>7</v>
-      </c>
-      <c r="D11">
-        <v>578.01300000000003</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>58.4</v>
-      </c>
-      <c r="G11">
-        <v>0.5</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="0"/>
-        <v>0.49567350756638956</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="1"/>
-        <v>1.2341341494884351E-2</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="2"/>
-        <v>0.47562420907027519</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="3"/>
-        <v>0.43982428643330829</v>
-      </c>
-      <c r="L11" s="3">
-        <f t="shared" si="4"/>
-        <v>1.3273511432133227</v>
-      </c>
-      <c r="M11" s="3">
-        <f t="shared" si="5"/>
-        <v>0.43984805554862533</v>
-      </c>
-      <c r="N11" s="3">
-        <f t="shared" si="6"/>
-        <v>578.01300000000003</v>
-      </c>
-      <c r="O11" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C12">
-        <v>8</v>
-      </c>
-      <c r="D12">
-        <v>671.64300000000003</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>61.5</v>
-      </c>
-      <c r="G12">
-        <v>0.5</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="0"/>
-        <v>0.5497787143782138</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="1"/>
-        <v>1.2341341494884351E-2</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="2"/>
-        <v>0.5224985647159488</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="3"/>
-        <v>0.42632008217704609</v>
-      </c>
-      <c r="L12" s="3">
-        <f t="shared" si="4"/>
-        <v>1.4013156773779141</v>
-      </c>
-      <c r="M12" s="3">
-        <f t="shared" si="5"/>
-        <v>0.42634041718762894</v>
-      </c>
-      <c r="N12" s="3">
-        <f t="shared" si="6"/>
-        <v>671.64300000000003</v>
-      </c>
-      <c r="O12" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C13">
-        <v>8</v>
-      </c>
-      <c r="D13">
-        <v>690.75199999999995</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>61.8</v>
-      </c>
-      <c r="G13">
-        <v>0.5</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="0"/>
-        <v>0.55501470213419679</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="1"/>
-        <v>1.2341341494884351E-2</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="2"/>
-        <v>0.52695579549667759</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="3"/>
-        <v>0.42494634649343199</v>
-      </c>
-      <c r="L13" s="3">
-        <f t="shared" si="4"/>
-        <v>1.4082592475616698</v>
-      </c>
-      <c r="M13" s="3">
-        <f t="shared" si="5"/>
-        <v>0.42496635512397513</v>
-      </c>
-      <c r="N13" s="3">
-        <f t="shared" si="6"/>
-        <v>690.75199999999995</v>
-      </c>
-      <c r="O13" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C14">
-        <v>9</v>
-      </c>
-      <c r="D14">
-        <v>410.80500000000001</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>46.2</v>
-      </c>
-      <c r="G14">
-        <v>0.5</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="0"/>
-        <v>0.28274333882308145</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="1"/>
-        <v>1.2341341494884351E-2</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="2"/>
-        <v>0.27899110603922933</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="3"/>
-        <v>0.48014684283847153</v>
-      </c>
-      <c r="L14" s="3">
-        <f t="shared" si="4"/>
-        <v>1.0007513341375915</v>
-      </c>
-      <c r="M14" s="3">
-        <f t="shared" si="5"/>
-        <v>0.48018483249528648</v>
-      </c>
-      <c r="N14" s="3">
-        <f t="shared" si="6"/>
-        <v>410.80500000000001</v>
-      </c>
-      <c r="O14" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
+        <v>199.6756037525077</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="8"/>
+        <v>624.4557841771466</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="9"/>
+        <v>34.929613807046422</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+    </row>
+    <row r="11" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+    </row>
+    <row r="13" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+    </row>
+    <row r="14" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+    </row>
+    <row r="15" spans="3:23" x14ac:dyDescent="0.25">
       <c r="D15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+    </row>
+    <row r="16" spans="3:23" x14ac:dyDescent="0.25">
       <c r="D16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+    </row>
+    <row r="18" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+    </row>
+    <row r="19" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+    </row>
+    <row r="21" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+    </row>
+    <row r="22" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+    </row>
+    <row r="23" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+    </row>
+    <row r="24" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/402/data/Balmer/h.xlsx
+++ b/402/data/Balmer/h.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="60">
   <si>
     <t>n</t>
   </si>
@@ -180,6 +180,24 @@
   </si>
   <si>
     <t>ddlambda</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>dgamma</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>dg</t>
+  </si>
+  <si>
+    <t>db</t>
   </si>
 </sst>
 </file>
@@ -375,11 +393,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="238689280"/>
-        <c:axId val="238711552"/>
+        <c:axId val="160627328"/>
+        <c:axId val="247302400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="238689280"/>
+        <c:axId val="160627328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -389,12 +407,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="238711552"/>
+        <c:crossAx val="247302400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="238711552"/>
+        <c:axId val="247302400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -405,7 +423,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="238689280"/>
+        <c:crossAx val="160627328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -558,11 +576,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="220481408"/>
-        <c:axId val="220482944"/>
+        <c:axId val="141171712"/>
+        <c:axId val="141193984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="220481408"/>
+        <c:axId val="141171712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -572,12 +590,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="220482944"/>
+        <c:crossAx val="141193984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="220482944"/>
+        <c:axId val="141193984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -588,7 +606,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="220481408"/>
+        <c:crossAx val="141171712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -741,11 +759,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="220619520"/>
-        <c:axId val="220621056"/>
+        <c:axId val="21071744"/>
+        <c:axId val="21073280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="220619520"/>
+        <c:axId val="21071744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -755,12 +773,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="220621056"/>
+        <c:crossAx val="21073280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="220621056"/>
+        <c:axId val="21073280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -771,7 +789,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="220619520"/>
+        <c:crossAx val="21071744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -924,11 +942,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="220652672"/>
-        <c:axId val="220654208"/>
+        <c:axId val="141062912"/>
+        <c:axId val="141064448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="220652672"/>
+        <c:axId val="141062912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -938,12 +956,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="220654208"/>
+        <c:crossAx val="141064448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="220654208"/>
+        <c:axId val="141064448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -954,7 +972,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="220652672"/>
+        <c:crossAx val="141062912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1003,7 +1021,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'236_rc'!$R$4</c:f>
+              <c:f>'236_rc'!$T$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1027,12 +1045,12 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'236_rc'!$P$5:$P$24</c:f>
+              <c:f>'236_rc'!$R$5:$R$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1.5824802304724477</c:v>
+                  <c:v>1.3778940589006039</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.1893666385365664</c:v>
@@ -1051,24 +1069,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'236_rc'!$R$5:$R$24</c:f>
+              <c:f>'236_rc'!$T$5:$T$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>782.74838979974186</c:v>
+                  <c:v>650.51409829174872</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>527.37354509276281</c:v>
+                  <c:v>527.38759416167738</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>447.40113249320461</c:v>
+                  <c:v>446.98738730395405</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>438.24241357429787</c:v>
+                  <c:v>437.77967589828472</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>401.09405515898959</c:v>
+                  <c:v>400.43260077663047</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1083,11 +1101,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="220593536"/>
-        <c:axId val="220677248"/>
+        <c:axId val="141122944"/>
+        <c:axId val="141132928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="220593536"/>
+        <c:axId val="141122944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1097,12 +1115,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="220677248"/>
+        <c:crossAx val="141132928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="220677248"/>
+        <c:axId val="141132928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1113,7 +1131,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="220593536"/>
+        <c:crossAx val="141122944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1284,13 +1302,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -4836,10 +4854,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:W24"/>
+  <dimension ref="C1:Y24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X5" sqref="X5:Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4847,7 +4865,35 @@
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>653.096</v>
+      </c>
+      <c r="G2">
+        <v>36.47</v>
+      </c>
+      <c r="H2">
+        <v>-249.38300000000001</v>
+      </c>
+      <c r="I2">
+        <v>43.15</v>
+      </c>
+    </row>
+    <row r="4" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -4864,55 +4910,61 @@
         <v>40</v>
       </c>
       <c r="H4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" t="s">
         <v>47</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>48</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>41</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>42</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>49</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>50</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>43</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>44</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>1</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>2</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" t="s">
         <v>3</v>
       </c>
-      <c r="S4" t="s">
+      <c r="U4" t="s">
         <v>4</v>
       </c>
-      <c r="T4" t="s">
+      <c r="V4" t="s">
         <v>51</v>
       </c>
-      <c r="U4" t="s">
+      <c r="W4" t="s">
         <v>52</v>
       </c>
-      <c r="V4" t="s">
+      <c r="X4" t="s">
         <v>38</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Y4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>1</v>
       </c>
@@ -4923,77 +4975,85 @@
         <v>0.05</v>
       </c>
       <c r="F5">
-        <v>70</v>
+        <v>60.5</v>
       </c>
       <c r="G5">
         <v>0.5</v>
       </c>
       <c r="H5">
+        <f>D5/300</f>
+        <v>3.3333333333333338E-4</v>
+      </c>
+      <c r="I5">
+        <f>H5*SQRT((E5/D5)^2+(1/30)^2)</f>
+        <v>1.6703662642636569E-4</v>
+      </c>
+      <c r="J5">
         <f>F5*PI()/180</f>
-        <v>1.2217304763960306</v>
-      </c>
-      <c r="I5">
+        <v>1.0559241974565694</v>
+      </c>
+      <c r="K5">
         <f>G5*PI()/180</f>
         <v>8.7266462599716477E-3</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <f>(F5-30)*PI()/180</f>
-        <v>0.69813170079773179</v>
-      </c>
-      <c r="K5">
+        <v>0.53232542185827048</v>
+      </c>
+      <c r="M5">
         <f>SQRT(2)*G5*PI()/180</f>
         <v>1.2341341494884351E-2</v>
       </c>
-      <c r="L5">
-        <f t="shared" ref="L5:L9" si="0">SIN(H5)</f>
-        <v>0.93969262078590832</v>
-      </c>
-      <c r="M5">
-        <f t="shared" ref="M5:M9" si="1">COS(H5)*I5</f>
-        <v>2.9846888045879146E-3</v>
-      </c>
       <c r="N5">
-        <f>SIN(J5)</f>
-        <v>0.64278760968653925</v>
+        <f t="shared" ref="N5:N9" si="0">SIN(J5)</f>
+        <v>0.8703556959398997</v>
       </c>
       <c r="O5">
-        <f>COS(J5)*G5</f>
-        <v>0.38302222155948901</v>
-      </c>
-      <c r="P5" s="3">
-        <f>N5+L5</f>
-        <v>1.5824802304724477</v>
-      </c>
-      <c r="Q5" s="3">
-        <f>SQRT(O5*O5+M5^2)</f>
-        <v>0.38303385043051547</v>
+        <f t="shared" ref="O5:O9" si="1">COS(J5)*K5</f>
+        <v>4.2972062190988454E-3</v>
+      </c>
+      <c r="P5">
+        <f>SIN(L5)</f>
+        <v>0.50753836296070409</v>
+      </c>
+      <c r="Q5">
+        <f>COS(L5)*M5</f>
+        <v>1.0633659710959368E-2</v>
       </c>
       <c r="R5" s="3">
-        <f>649.621*P5-245.264</f>
-        <v>782.74838979974186</v>
+        <f>P5+N5</f>
+        <v>1.3778940589006039</v>
       </c>
       <c r="S5" s="3">
-        <f>SQRT(R5^2*((Q5/P5)^2+(36.27/649.621)^2)+42.7^2)</f>
-        <v>199.07008999583732</v>
-      </c>
-      <c r="T5">
-        <f>649.621*COS(J5)</f>
-        <v>497.63855718339363</v>
-      </c>
-      <c r="U5">
-        <f>T5*SQRT((36.27/649.621)^2+(N5*K5)^2)</f>
-        <v>28.063481181641748</v>
+        <f>SQRT(Q5*Q5+O5^2)</f>
+        <v>1.1469119414233259E-2</v>
+      </c>
+      <c r="T5" s="3">
+        <f>$F$2*R5+$H$2</f>
+        <v>650.51409829174872</v>
+      </c>
+      <c r="U5" s="3">
+        <f>SQRT(T5^2*((S5/R5)^2+($G$2/$F$2)^2)+$I$2^2)</f>
+        <v>56.663977701951261</v>
       </c>
       <c r="V5">
-        <f>T5*D5*PI()/180</f>
-        <v>0.86854313077242973</v>
+        <f>$F$2*COS(L5)</f>
+        <v>562.72655816771874</v>
       </c>
       <c r="W5">
-        <f>V5*SQRT((U5/T5)^2+(E5/F5)^2)</f>
-        <v>4.8983943423305441E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="3:23" x14ac:dyDescent="0.25">
+        <f>V5*SQRT(($G$2/$F$2)^2+(P5*M5)^2)</f>
+        <v>31.620681393486489</v>
+      </c>
+      <c r="X5">
+        <f>V5*H5</f>
+        <v>0.18757551938923961</v>
+      </c>
+      <c r="Y5">
+        <f>X5*SQRT((W5/V5)^2+(I5/H5)^2)</f>
+        <v>9.4585063457510499E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>2</v>
       </c>
@@ -5010,71 +5070,79 @@
         <v>0.5</v>
       </c>
       <c r="H6">
-        <f t="shared" ref="H6:H9" si="2">F6*PI()/180</f>
+        <f t="shared" ref="H6:H9" si="2">D6/300</f>
+        <v>1E-3</v>
+      </c>
+      <c r="I6">
+        <f>H6*SQRT((E6/D6)^2+(1/30)^2)</f>
+        <v>1.6996731711975952E-4</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ref="J6:J9" si="3">F6*PI()/180</f>
         <v>0.92502450355699462</v>
       </c>
-      <c r="I6">
-        <f t="shared" ref="I6:I9" si="3">G6*PI()/180</f>
+      <c r="K6">
+        <f t="shared" ref="K6:K9" si="4">G6*PI()/180</f>
         <v>8.7266462599716477E-3</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <f>(F6-30)*PI()/180</f>
         <v>0.40142572795869574</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <f>SQRT(2)*G6*PI()/180</f>
         <v>1.2341341494884351E-2</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <f t="shared" si="0"/>
         <v>0.79863551004729283</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <f t="shared" si="1"/>
         <v>5.251826820984574E-3</v>
       </c>
-      <c r="N6">
-        <f>SIN(J6)</f>
+      <c r="P6">
+        <f>SIN(L6)</f>
         <v>0.39073112848927372</v>
       </c>
-      <c r="O6">
-        <f>COS(J6)*G6</f>
-        <v>0.46025242672622019</v>
-      </c>
-      <c r="P6" s="3">
-        <f t="shared" ref="P6:P9" si="4">N6+L6</f>
+      <c r="Q6">
+        <f t="shared" ref="Q6:Q9" si="5">COS(L6)*M6</f>
+        <v>1.1360264744155042E-2</v>
+      </c>
+      <c r="R6" s="3">
+        <f t="shared" ref="R6:R9" si="6">P6+N6</f>
         <v>1.1893666385365664</v>
       </c>
-      <c r="Q6" s="3">
-        <f t="shared" ref="Q6:Q9" si="5">SQRT(O6*O6+M6^2)</f>
-        <v>0.46028238940060728</v>
-      </c>
-      <c r="R6" s="3">
-        <f t="shared" ref="R6:R9" si="6">649.621*P6-245.264</f>
-        <v>527.37354509276281</v>
-      </c>
       <c r="S6" s="3">
-        <f t="shared" ref="S6:S9" si="7">SQRT(R6^2*((Q6/P6)^2+(36.27/649.621)^2)+42.7^2)</f>
-        <v>210.58016239254675</v>
-      </c>
-      <c r="T6">
-        <f t="shared" ref="T6:T9" si="8">649.621*COS(J6)</f>
-        <v>597.97928340462772</v>
-      </c>
-      <c r="U6">
-        <f t="shared" ref="U6:U9" si="9">T6*SQRT((36.27/649.621)^2+(N6*K6)^2)</f>
-        <v>33.511002630607479</v>
+        <f t="shared" ref="S6:S9" si="7">SQRT(Q6*Q6+O6^2)</f>
+        <v>1.2515482412392458E-2</v>
+      </c>
+      <c r="T6" s="3">
+        <f t="shared" ref="T6:T9" si="8">$F$2*R6+$H$2</f>
+        <v>527.38759416167738</v>
+      </c>
+      <c r="U6" s="3">
+        <f t="shared" ref="U6:U9" si="9">SQRT(T6^2*((S6/R6)^2+($G$2/$F$2)^2)+$I$2^2)</f>
+        <v>52.536049052129556</v>
       </c>
       <c r="V6">
-        <f t="shared" ref="V6:V9" si="10">T6*D6*PI()/180</f>
-        <v>3.1310122062381121</v>
+        <f t="shared" ref="V6:V9" si="10">$F$2*COS(L6)</f>
+        <v>601.178037770375</v>
       </c>
       <c r="W6">
-        <f t="shared" ref="W6:W9" si="11">V6*SQRT((U6/T6)^2+(E6/F6)^2)</f>
-        <v>0.17548806002906109</v>
-      </c>
-    </row>
-    <row r="7" spans="3:23" x14ac:dyDescent="0.25">
+        <f t="shared" ref="W6:W9" si="11">V6*SQRT(($G$2/$F$2)^2+(P6*M6)^2)</f>
+        <v>33.695748051384868</v>
+      </c>
+      <c r="X6">
+        <f t="shared" ref="X6:X9" si="12">V6*H6</f>
+        <v>0.60117803777037504</v>
+      </c>
+      <c r="Y6">
+        <f>X6*SQRT((W6/V6)^2+(I6/H6)^2)</f>
+        <v>0.107593132544175</v>
+      </c>
+    </row>
+    <row r="7" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>3</v>
       </c>
@@ -5084,72 +5152,72 @@
       <c r="G7">
         <v>0.5</v>
       </c>
-      <c r="H7">
-        <f t="shared" si="2"/>
+      <c r="J7">
+        <f t="shared" si="3"/>
         <v>0.84648468721724979</v>
       </c>
-      <c r="I7">
-        <f t="shared" si="3"/>
+      <c r="K7">
+        <f t="shared" si="4"/>
         <v>8.7266462599716477E-3</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <f>(F7-30)*PI()/180</f>
         <v>0.32288591161895097</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <f>SQRT(2)*G7*PI()/180</f>
         <v>1.2341341494884351E-2</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <f t="shared" si="0"/>
         <v>0.74895572078900208</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <f t="shared" si="1"/>
         <v>5.7824507655440983E-3</v>
       </c>
-      <c r="N7">
-        <f>SIN(J7)</f>
+      <c r="P7">
+        <f>SIN(L7)</f>
         <v>0.31730465640509214</v>
       </c>
-      <c r="O7">
-        <f>COS(J7)*G7</f>
-        <v>0.47416182760309966</v>
-      </c>
-      <c r="P7" s="3">
-        <f t="shared" si="4"/>
-        <v>1.0662603771940942</v>
-      </c>
-      <c r="Q7" s="3">
+      <c r="Q7">
         <f t="shared" si="5"/>
-        <v>0.47419708507409397</v>
+        <v>1.1703586076576667E-2</v>
       </c>
       <c r="R7" s="3">
         <f t="shared" si="6"/>
-        <v>447.40113249320461</v>
+        <v>1.0662603771940942</v>
       </c>
       <c r="S7" s="3">
         <f t="shared" si="7"/>
-        <v>205.02989147935753</v>
-      </c>
-      <c r="T7">
+        <v>1.3054143553208717E-2</v>
+      </c>
+      <c r="T7" s="3">
         <f t="shared" si="8"/>
-        <v>616.05096121870645</v>
-      </c>
-      <c r="U7">
+        <v>446.98738730395405</v>
+      </c>
+      <c r="U7" s="3">
         <f t="shared" si="9"/>
-        <v>34.480196433790574</v>
+        <v>50.148765295571707</v>
       </c>
       <c r="V7">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>619.34638592054796</v>
       </c>
       <c r="W7">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="3:23" x14ac:dyDescent="0.25">
+        <v>34.670299265380429</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" ref="Y6:Y9" si="13">X7*SQRT((W7/V7)^2+(E7/F7)^2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>4</v>
       </c>
@@ -5159,72 +5227,72 @@
       <c r="G8">
         <v>0.5</v>
       </c>
-      <c r="H8">
-        <f t="shared" si="2"/>
+      <c r="J8">
+        <f t="shared" si="3"/>
         <v>0.83775804095727813</v>
       </c>
-      <c r="I8">
-        <f t="shared" si="3"/>
+      <c r="K8">
+        <f t="shared" si="4"/>
         <v>8.7266462599716477E-3</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <f>(F8-30)*PI()/180</f>
         <v>0.31415926535897931</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <f>SQRT(2)*G8*PI()/180</f>
         <v>1.2341341494884351E-2</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <f t="shared" si="0"/>
         <v>0.74314482547739413</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <f t="shared" si="1"/>
         <v>5.8392661034140907E-3</v>
       </c>
-      <c r="N8">
-        <f>SIN(J8)</f>
+      <c r="P8">
+        <f>SIN(L8)</f>
         <v>0.3090169943749474</v>
       </c>
-      <c r="O8">
-        <f>COS(J8)*G8</f>
-        <v>0.47552825814757677</v>
-      </c>
-      <c r="P8" s="3">
-        <f t="shared" si="4"/>
-        <v>1.0521618198523415</v>
-      </c>
-      <c r="Q8" s="3">
+      <c r="Q8">
         <f t="shared" si="5"/>
-        <v>0.47556410853374426</v>
+        <v>1.1737313248533533E-2</v>
       </c>
       <c r="R8" s="3">
         <f t="shared" si="6"/>
-        <v>438.24241357429787</v>
+        <v>1.0521618198523415</v>
       </c>
       <c r="S8" s="3">
         <f t="shared" si="7"/>
-        <v>204.10224194616603</v>
-      </c>
-      <c r="T8">
+        <v>1.310959766433286E-2</v>
+      </c>
+      <c r="T8" s="3">
         <f t="shared" si="8"/>
-        <v>617.82628517217393</v>
-      </c>
-      <c r="U8">
+        <v>437.77967589828472</v>
+      </c>
+      <c r="U8" s="3">
         <f t="shared" si="9"/>
-        <v>34.575197008094129</v>
+        <v>49.892885009993293</v>
       </c>
       <c r="V8">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>621.13120656629962</v>
       </c>
       <c r="W8">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="3:23" x14ac:dyDescent="0.25">
+        <v>34.765825047407176</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>5</v>
       </c>
@@ -5234,170 +5302,170 @@
       <c r="G9">
         <v>0.5</v>
       </c>
-      <c r="H9">
-        <f t="shared" si="2"/>
+      <c r="J9">
+        <f t="shared" si="3"/>
         <v>0.80285145591739149</v>
       </c>
-      <c r="I9">
-        <f t="shared" si="3"/>
+      <c r="K9">
+        <f t="shared" si="4"/>
         <v>8.7266462599716477E-3</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <f>(F9-30)*PI()/180</f>
         <v>0.27925268031909273</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <f>SQRT(2)*G9*PI()/180</f>
         <v>1.2341341494884351E-2</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <f t="shared" si="0"/>
         <v>0.71933980033865108</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <f t="shared" si="1"/>
         <v>6.0620378705240089E-3</v>
       </c>
-      <c r="N9">
-        <f>SIN(J9)</f>
+      <c r="P9">
+        <f>SIN(L9)</f>
         <v>0.27563735581699916</v>
       </c>
-      <c r="O9">
-        <f>COS(J9)*G9</f>
-        <v>0.48063084796915945</v>
-      </c>
-      <c r="P9" s="3">
-        <f t="shared" si="4"/>
-        <v>0.99497715615565019</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="Q9">
         <f t="shared" si="5"/>
-        <v>0.48066907568793826</v>
+        <v>1.1863258855526479E-2</v>
       </c>
       <c r="R9" s="3">
         <f t="shared" si="6"/>
-        <v>401.09405515898959</v>
+        <v>0.99497715615565019</v>
       </c>
       <c r="S9" s="3">
         <f t="shared" si="7"/>
-        <v>199.6756037525077</v>
-      </c>
-      <c r="T9">
+        <v>1.3322357667353579E-2</v>
+      </c>
+      <c r="T9" s="3">
         <f t="shared" si="8"/>
-        <v>624.4557841771466</v>
-      </c>
-      <c r="U9">
+        <v>400.43260077663047</v>
+      </c>
+      <c r="U9" s="3">
         <f t="shared" si="9"/>
-        <v>34.929613807046422</v>
+        <v>48.894549177986036</v>
       </c>
       <c r="V9">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>627.79616857053236</v>
       </c>
       <c r="W9">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
+        <v>35.122201346588589</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="3:25" x14ac:dyDescent="0.25">
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
-    </row>
-    <row r="11" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+    </row>
+    <row r="11" spans="3:25" x14ac:dyDescent="0.25">
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="3:25" x14ac:dyDescent="0.25">
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
-    </row>
-    <row r="13" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+    </row>
+    <row r="13" spans="3:25" x14ac:dyDescent="0.25">
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
-    </row>
-    <row r="14" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+    </row>
+    <row r="14" spans="3:25" x14ac:dyDescent="0.25">
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
-    </row>
-    <row r="15" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+    </row>
+    <row r="15" spans="3:25" x14ac:dyDescent="0.25">
       <c r="D15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
-    </row>
-    <row r="16" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+    </row>
+    <row r="16" spans="3:25" x14ac:dyDescent="0.25">
       <c r="D16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
-    </row>
-    <row r="18" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+    </row>
+    <row r="18" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
-    </row>
-    <row r="19" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+    </row>
+    <row r="19" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
-    </row>
-    <row r="21" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+    </row>
+    <row r="21" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
-    </row>
-    <row r="22" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+    </row>
+    <row r="22" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
-    </row>
-    <row r="23" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+    </row>
+    <row r="23" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
-    </row>
-    <row r="24" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+    </row>
+    <row r="24" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/402/data/Balmer/h.xlsx
+++ b/402/data/Balmer/h.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="67">
   <si>
     <t>n</t>
   </si>
@@ -198,6 +198,27 @@
   </si>
   <si>
     <t>db</t>
+  </si>
+  <si>
+    <t>okular</t>
+  </si>
+  <si>
+    <t>ccd</t>
+  </si>
+  <si>
+    <t>rx</t>
+  </si>
+  <si>
+    <t>ry</t>
+  </si>
+  <si>
+    <t>dry</t>
+  </si>
+  <si>
+    <t>dopp/dl</t>
+  </si>
+  <si>
+    <t>dopp</t>
   </si>
 </sst>
 </file>
@@ -393,11 +414,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="160627328"/>
-        <c:axId val="247302400"/>
+        <c:axId val="248519680"/>
+        <c:axId val="248550144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="160627328"/>
+        <c:axId val="248519680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -407,12 +428,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="247302400"/>
+        <c:crossAx val="248550144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="247302400"/>
+        <c:axId val="248550144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -423,7 +444,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160627328"/>
+        <c:crossAx val="248519680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -576,11 +597,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="141171712"/>
-        <c:axId val="141193984"/>
+        <c:axId val="249911168"/>
+        <c:axId val="249912704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="141171712"/>
+        <c:axId val="249911168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -590,12 +611,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141193984"/>
+        <c:crossAx val="249912704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="141193984"/>
+        <c:axId val="249912704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -606,7 +627,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141171712"/>
+        <c:crossAx val="249911168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -759,11 +780,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="21071744"/>
-        <c:axId val="21073280"/>
+        <c:axId val="249590528"/>
+        <c:axId val="249592064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="21071744"/>
+        <c:axId val="249590528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -773,12 +794,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="21073280"/>
+        <c:crossAx val="249592064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="21073280"/>
+        <c:axId val="249592064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -789,7 +810,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="21071744"/>
+        <c:crossAx val="249590528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -942,11 +963,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="141062912"/>
-        <c:axId val="141064448"/>
+        <c:axId val="249623680"/>
+        <c:axId val="249625216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="141062912"/>
+        <c:axId val="249623680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -956,12 +977,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141064448"/>
+        <c:crossAx val="249625216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="141064448"/>
+        <c:axId val="249625216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -972,7 +993,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141062912"/>
+        <c:crossAx val="249623680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1064,6 +1085,21 @@
                 <c:pt idx="4">
                   <c:v>0.99497715615565019</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3778940589006039</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1893666385365664</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0662603771940942</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0521618198523415</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99497715615565019</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1086,6 +1122,21 @@
                   <c:v>437.77967589828472</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>400.43260077663047</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>650.51409829174872</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>527.38759416167738</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>446.98738730395405</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>437.77967589828472</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>400.43260077663047</c:v>
                 </c:pt>
               </c:numCache>
@@ -1101,11 +1152,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="141122944"/>
-        <c:axId val="141132928"/>
+        <c:axId val="249560448"/>
+        <c:axId val="249648256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="141122944"/>
+        <c:axId val="249560448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1115,12 +1166,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141132928"/>
+        <c:crossAx val="249648256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="141132928"/>
+        <c:axId val="249648256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1131,7 +1182,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141122944"/>
+        <c:crossAx val="249560448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4854,18 +4905,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:Y24"/>
+  <dimension ref="B1:AD24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X5" sqref="X5:Y5"/>
+    <sheetView tabSelected="1" topLeftCell="T3" workbookViewId="0">
+      <selection activeCell="AD5" sqref="AD5:AD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:30" x14ac:dyDescent="0.25">
       <c r="F1" t="s">
         <v>56</v>
       </c>
@@ -4879,7 +4931,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:30" x14ac:dyDescent="0.25">
       <c r="F2">
         <v>653.096</v>
       </c>
@@ -4893,7 +4945,7 @@
         <v>43.15</v>
       </c>
     </row>
-    <row r="4" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -4963,10 +5015,28 @@
       <c r="Y4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="5" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="Z4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
       <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>0.1</v>
@@ -5005,11 +5075,11 @@
         <v>1.2341341494884351E-2</v>
       </c>
       <c r="N5">
-        <f t="shared" ref="N5:N9" si="0">SIN(J5)</f>
+        <f t="shared" ref="N5:N14" si="0">SIN(J5)</f>
         <v>0.8703556959398997</v>
       </c>
       <c r="O5">
-        <f t="shared" ref="O5:O9" si="1">COS(J5)*K5</f>
+        <f t="shared" ref="O5:O14" si="1">COS(J5)*K5</f>
         <v>4.2972062190988454E-3</v>
       </c>
       <c r="P5">
@@ -5052,10 +5122,30 @@
         <f>X5*SQRT((W5/V5)^2+(I5/H5)^2)</f>
         <v>9.4585063457510499E-2</v>
       </c>
-    </row>
-    <row r="6" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="Z5">
+        <f>1/4-1/C5^2</f>
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="AA5">
+        <f>1/T5</f>
+        <v>1.5372456994029828E-3</v>
+      </c>
+      <c r="AB5">
+        <f>AA5*U5/T5</f>
+        <v>1.3390402492756548E-4</v>
+      </c>
+      <c r="AC5">
+        <f>1/3/10^8*SQRT(3*1.38*10^-20/1.67*10^27)</f>
+        <v>1.6596659356521332E-5</v>
+      </c>
+      <c r="AD5">
+        <f>T5*AC5</f>
+        <v>1.079636089596279E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <v>0.3</v>
@@ -5070,7 +5160,7 @@
         <v>0.5</v>
       </c>
       <c r="H6">
-        <f t="shared" ref="H6:H9" si="2">D6/300</f>
+        <f t="shared" ref="H6" si="2">D6/300</f>
         <v>1E-3</v>
       </c>
       <c r="I6">
@@ -5078,11 +5168,11 @@
         <v>1.6996731711975952E-4</v>
       </c>
       <c r="J6">
-        <f t="shared" ref="J6:J9" si="3">F6*PI()/180</f>
+        <f t="shared" ref="J6:J14" si="3">F6*PI()/180</f>
         <v>0.92502450355699462</v>
       </c>
       <c r="K6">
-        <f t="shared" ref="K6:K9" si="4">G6*PI()/180</f>
+        <f t="shared" ref="K6:K14" si="4">G6*PI()/180</f>
         <v>8.7266462599716477E-3</v>
       </c>
       <c r="L6">
@@ -5106,45 +5196,65 @@
         <v>0.39073112848927372</v>
       </c>
       <c r="Q6">
-        <f t="shared" ref="Q6:Q9" si="5">COS(L6)*M6</f>
+        <f t="shared" ref="Q6:Q14" si="5">COS(L6)*M6</f>
         <v>1.1360264744155042E-2</v>
       </c>
       <c r="R6" s="3">
-        <f t="shared" ref="R6:R9" si="6">P6+N6</f>
+        <f t="shared" ref="R6:R14" si="6">P6+N6</f>
         <v>1.1893666385365664</v>
       </c>
       <c r="S6" s="3">
-        <f t="shared" ref="S6:S9" si="7">SQRT(Q6*Q6+O6^2)</f>
+        <f t="shared" ref="S6:S14" si="7">SQRT(Q6*Q6+O6^2)</f>
         <v>1.2515482412392458E-2</v>
       </c>
       <c r="T6" s="3">
-        <f t="shared" ref="T6:T9" si="8">$F$2*R6+$H$2</f>
+        <f t="shared" ref="T6:T14" si="8">$F$2*R6+$H$2</f>
         <v>527.38759416167738</v>
       </c>
       <c r="U6" s="3">
-        <f t="shared" ref="U6:U9" si="9">SQRT(T6^2*((S6/R6)^2+($G$2/$F$2)^2)+$I$2^2)</f>
+        <f t="shared" ref="U6:U14" si="9">SQRT(T6^2*((S6/R6)^2+($G$2/$F$2)^2)+$I$2^2)</f>
         <v>52.536049052129556</v>
       </c>
       <c r="V6">
-        <f t="shared" ref="V6:V9" si="10">$F$2*COS(L6)</f>
+        <f t="shared" ref="V6:V14" si="10">$F$2*COS(L6)</f>
         <v>601.178037770375</v>
       </c>
       <c r="W6">
-        <f t="shared" ref="W6:W9" si="11">V6*SQRT(($G$2/$F$2)^2+(P6*M6)^2)</f>
+        <f t="shared" ref="W6:W14" si="11">V6*SQRT(($G$2/$F$2)^2+(P6*M6)^2)</f>
         <v>33.695748051384868</v>
       </c>
       <c r="X6">
-        <f t="shared" ref="X6:X9" si="12">V6*H6</f>
+        <f t="shared" ref="X6:X14" si="12">V6*H6</f>
         <v>0.60117803777037504</v>
       </c>
       <c r="Y6">
         <f>X6*SQRT((W6/V6)^2+(I6/H6)^2)</f>
         <v>0.107593132544175</v>
       </c>
-    </row>
-    <row r="7" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="Z6">
+        <f t="shared" ref="Z6:Z14" si="13">1/4-1/C6^2</f>
+        <v>0.1875</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" ref="AA6:AA9" si="14">1/T6</f>
+        <v>1.8961386484442734E-3</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" ref="AB6:AB9" si="15">AA6*U6/T6</f>
+        <v>1.8888505180455296E-4</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" ref="AC6:AC9" si="16">1/3/10^8*SQRT(3*1.38*10^-20/1.67*10^27)</f>
+        <v>1.6596659356521332E-5</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" ref="AD6:AD9" si="17">T6*AC6</f>
+        <v>8.752872249156678E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F7">
         <v>48.5</v>
@@ -5213,13 +5323,33 @@
         <v>0</v>
       </c>
       <c r="Y7">
-        <f t="shared" ref="Y6:Y9" si="13">X7*SQRT((W7/V7)^2+(E7/F7)^2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="3:25" x14ac:dyDescent="0.25">
+        <f t="shared" ref="Y7:Y14" si="18">X7*SQRT((W7/V7)^2+(E7/F7)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="13"/>
+        <v>0.21</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="14"/>
+        <v>2.2371995908689792E-3</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="15"/>
+        <v>2.509976799983972E-4</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="16"/>
+        <v>1.6596659356521332E-5</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="17"/>
+        <v>7.4184974037451931E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F8">
         <v>48</v>
@@ -5288,13 +5418,33 @@
         <v>0</v>
       </c>
       <c r="Y8">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Z8">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="3:25" x14ac:dyDescent="0.25">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="14"/>
+        <v>2.2842540553032514E-3</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="15"/>
+        <v>2.6033192308666178E-4</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="16"/>
+        <v>1.6596659356521332E-5</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="17"/>
+        <v>7.2656801540921436E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F9">
         <v>46</v>
@@ -5363,48 +5513,434 @@
         <v>0</v>
       </c>
       <c r="Y9">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Z9">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-    </row>
-    <row r="11" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-    </row>
-    <row r="13" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-    </row>
-    <row r="14" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-    </row>
-    <row r="15" spans="3:25" x14ac:dyDescent="0.25">
+        <v>0.22959183673469388</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="14"/>
+        <v>2.497299166103163E-3</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="15"/>
+        <v>3.0493100874493217E-4</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="16"/>
+        <v>1.6596659356521332E-5</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="17"/>
+        <v>6.6458434703356353E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>60.5</v>
+      </c>
+      <c r="G10">
+        <v>0.5</v>
+      </c>
+      <c r="H10">
+        <v>5.8225929000000004E-4</v>
+      </c>
+      <c r="I10">
+        <v>1.2423160000000001E-5</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>1.0559241974565694</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="4"/>
+        <v>8.7266462599716477E-3</v>
+      </c>
+      <c r="L10">
+        <f t="shared" ref="L10:L14" si="19">(F10-30)*PI()/180</f>
+        <v>0.53232542185827048</v>
+      </c>
+      <c r="M10">
+        <f t="shared" ref="M10:M14" si="20">SQRT(2)*G10*PI()/180</f>
+        <v>1.2341341494884351E-2</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>0.8703556959398997</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>4.2972062190988454E-3</v>
+      </c>
+      <c r="P10">
+        <f t="shared" ref="P10:P14" si="21">SIN(L10)</f>
+        <v>0.50753836296070409</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="5"/>
+        <v>1.0633659710959368E-2</v>
+      </c>
+      <c r="R10" s="3">
+        <f t="shared" si="6"/>
+        <v>1.3778940589006039</v>
+      </c>
+      <c r="S10" s="3">
+        <f t="shared" si="7"/>
+        <v>1.1469119414233259E-2</v>
+      </c>
+      <c r="T10" s="3">
+        <f t="shared" si="8"/>
+        <v>650.51409829174872</v>
+      </c>
+      <c r="U10" s="3">
+        <f t="shared" si="9"/>
+        <v>56.663977701951261</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="10"/>
+        <v>562.72655816771874</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="11"/>
+        <v>31.620681393486489</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="12"/>
+        <v>0.32765276622287964</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="18"/>
+        <v>1.8411435497487656E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>53</v>
+      </c>
+      <c r="G11">
+        <v>0.5</v>
+      </c>
+      <c r="H11">
+        <v>3.4152602000000001E-4</v>
+      </c>
+      <c r="I11">
+        <v>1.290961E-5</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>0.92502450355699462</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="4"/>
+        <v>8.7266462599716477E-3</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="19"/>
+        <v>0.40142572795869574</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="20"/>
+        <v>1.2341341494884351E-2</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>0.79863551004729283</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>5.251826820984574E-3</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="21"/>
+        <v>0.39073112848927372</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="5"/>
+        <v>1.1360264744155042E-2</v>
+      </c>
+      <c r="R11" s="3">
+        <f t="shared" si="6"/>
+        <v>1.1893666385365664</v>
+      </c>
+      <c r="S11" s="3">
+        <f t="shared" si="7"/>
+        <v>1.2515482412392458E-2</v>
+      </c>
+      <c r="T11" s="3">
+        <f t="shared" si="8"/>
+        <v>527.38759416167738</v>
+      </c>
+      <c r="U11" s="3">
+        <f t="shared" si="9"/>
+        <v>52.536049052129556</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="10"/>
+        <v>601.178037770375</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="11"/>
+        <v>33.695748051384868</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="12"/>
+        <v>0.20531794255112584</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="18"/>
+        <v>1.1507974722912229E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>48.5</v>
+      </c>
+      <c r="G12">
+        <v>0.5</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>0.84648468721724979</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="4"/>
+        <v>8.7266462599716477E-3</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="19"/>
+        <v>0.32288591161895097</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="20"/>
+        <v>1.2341341494884351E-2</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>0.74895572078900208</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>5.7824507655440983E-3</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="21"/>
+        <v>0.31730465640509214</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="5"/>
+        <v>1.1703586076576667E-2</v>
+      </c>
+      <c r="R12" s="3">
+        <f t="shared" si="6"/>
+        <v>1.0662603771940942</v>
+      </c>
+      <c r="S12" s="3">
+        <f t="shared" si="7"/>
+        <v>1.3054143553208717E-2</v>
+      </c>
+      <c r="T12" s="3">
+        <f t="shared" si="8"/>
+        <v>446.98738730395405</v>
+      </c>
+      <c r="U12" s="3">
+        <f t="shared" si="9"/>
+        <v>50.148765295571707</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="10"/>
+        <v>619.34638592054796</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="11"/>
+        <v>34.670299265380429</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>48</v>
+      </c>
+      <c r="G13">
+        <v>0.5</v>
+      </c>
+      <c r="H13">
+        <v>-1.69646003E-3</v>
+      </c>
+      <c r="I13">
+        <v>3.218058E-5</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>0.83775804095727813</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="4"/>
+        <v>8.7266462599716477E-3</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="19"/>
+        <v>0.31415926535897931</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="20"/>
+        <v>1.2341341494884351E-2</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>0.74314482547739413</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>5.8392661034140907E-3</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="21"/>
+        <v>0.3090169943749474</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="5"/>
+        <v>1.1737313248533533E-2</v>
+      </c>
+      <c r="R13" s="3">
+        <f t="shared" si="6"/>
+        <v>1.0521618198523415</v>
+      </c>
+      <c r="S13" s="3">
+        <f t="shared" si="7"/>
+        <v>1.310959766433286E-2</v>
+      </c>
+      <c r="T13" s="3">
+        <f t="shared" si="8"/>
+        <v>437.77967589828472</v>
+      </c>
+      <c r="U13" s="3">
+        <f t="shared" si="9"/>
+        <v>49.892885009993293</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="10"/>
+        <v>621.13120656629962</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="11"/>
+        <v>34.765825047407176</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="12"/>
+        <v>-1.0537242653254009</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="18"/>
+        <v>-5.8978832602899128E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <v>46</v>
+      </c>
+      <c r="G14">
+        <v>0.5</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>0.80285145591739149</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="4"/>
+        <v>8.7266462599716477E-3</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="19"/>
+        <v>0.27925268031909273</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="20"/>
+        <v>1.2341341494884351E-2</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>0.71933980033865108</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="1"/>
+        <v>6.0620378705240089E-3</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="21"/>
+        <v>0.27563735581699916</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="5"/>
+        <v>1.1863258855526479E-2</v>
+      </c>
+      <c r="R14" s="3">
+        <f t="shared" si="6"/>
+        <v>0.99497715615565019</v>
+      </c>
+      <c r="S14" s="3">
+        <f t="shared" si="7"/>
+        <v>1.3322357667353579E-2</v>
+      </c>
+      <c r="T14" s="3">
+        <f t="shared" si="8"/>
+        <v>400.43260077663047</v>
+      </c>
+      <c r="U14" s="3">
+        <f t="shared" si="9"/>
+        <v>48.894549177986036</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="10"/>
+        <v>627.79616857053236</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="11"/>
+        <v>35.122201346588589</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:30" x14ac:dyDescent="0.25">
       <c r="D15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
     </row>
-    <row r="16" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:30" x14ac:dyDescent="0.25">
       <c r="D16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>

--- a/402/data/Balmer/h.xlsx
+++ b/402/data/Balmer/h.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="75">
   <si>
     <t>n</t>
   </si>
@@ -219,6 +219,30 @@
   </si>
   <si>
     <t>dopp</t>
+  </si>
+  <si>
+    <t>ddopp</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>dsigma</t>
+  </si>
+  <si>
+    <t>sigmal</t>
+  </si>
+  <si>
+    <t>dsigmal</t>
+  </si>
+  <si>
+    <t>sigman</t>
+  </si>
+  <si>
+    <t>auflös</t>
+  </si>
+  <si>
+    <t>dauflös</t>
   </si>
 </sst>
 </file>
@@ -257,11 +281,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -414,11 +439,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="248519680"/>
-        <c:axId val="248550144"/>
+        <c:axId val="233184256"/>
+        <c:axId val="233218816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="248519680"/>
+        <c:axId val="233184256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -428,12 +453,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="248550144"/>
+        <c:crossAx val="233218816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="248550144"/>
+        <c:axId val="233218816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -444,7 +469,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="248519680"/>
+        <c:crossAx val="233184256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -597,11 +622,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="249911168"/>
-        <c:axId val="249912704"/>
+        <c:axId val="234575744"/>
+        <c:axId val="234577280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="249911168"/>
+        <c:axId val="234575744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -611,12 +636,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="249912704"/>
+        <c:crossAx val="234577280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="249912704"/>
+        <c:axId val="234577280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -627,7 +652,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="249911168"/>
+        <c:crossAx val="234575744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -780,11 +805,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="249590528"/>
-        <c:axId val="249592064"/>
+        <c:axId val="234255104"/>
+        <c:axId val="234256640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="249590528"/>
+        <c:axId val="234255104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -794,12 +819,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="249592064"/>
+        <c:crossAx val="234256640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="249592064"/>
+        <c:axId val="234256640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -810,7 +835,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="249590528"/>
+        <c:crossAx val="234255104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -963,11 +988,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="249623680"/>
-        <c:axId val="249625216"/>
+        <c:axId val="234288256"/>
+        <c:axId val="234289792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="249623680"/>
+        <c:axId val="234288256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -977,12 +1002,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="249625216"/>
+        <c:crossAx val="234289792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="249625216"/>
+        <c:axId val="234289792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -993,7 +1018,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="249623680"/>
+        <c:crossAx val="234288256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1152,11 +1177,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="249560448"/>
-        <c:axId val="249648256"/>
+        <c:axId val="234311680"/>
+        <c:axId val="234313216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="249560448"/>
+        <c:axId val="234311680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1166,12 +1191,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="249648256"/>
+        <c:crossAx val="234313216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="249648256"/>
+        <c:axId val="234313216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1182,7 +1207,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="249560448"/>
+        <c:crossAx val="234311680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4905,19 +4930,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AD24"/>
+  <dimension ref="B1:AL24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T3" workbookViewId="0">
-      <selection activeCell="AD5" sqref="AD5:AD9"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AH11" sqref="AH11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="12" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:38" x14ac:dyDescent="0.25">
       <c r="F1" t="s">
         <v>56</v>
       </c>
@@ -4931,7 +4957,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:38" x14ac:dyDescent="0.25">
       <c r="F2">
         <v>653.096</v>
       </c>
@@ -4945,7 +4971,7 @@
         <v>43.15</v>
       </c>
     </row>
-    <row r="4" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:38" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -5030,8 +5056,32 @@
       <c r="AD4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="5" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>60</v>
       </c>
@@ -5142,8 +5192,38 @@
         <f>T5*AC5</f>
         <v>1.079636089596279E-2</v>
       </c>
-    </row>
-    <row r="6" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE5">
+        <f>AC5*U5</f>
+        <v>9.4043273570480551E-4</v>
+      </c>
+      <c r="AF5">
+        <v>1.6393999999999999E-2</v>
+      </c>
+      <c r="AG5">
+        <v>5.306E-4</v>
+      </c>
+      <c r="AH5">
+        <f>V5*AF5*PI()/180</f>
+        <v>0.16101254355907946</v>
+      </c>
+      <c r="AI5">
+        <f>AH5*SQRT((AG5/AF5)^2+(W5/V5)^2)</f>
+        <v>1.0441085015344943E-2</v>
+      </c>
+      <c r="AJ5">
+        <f>(T5*10^-9)^2/2/PI()/3*10^-8*10^8*10^9</f>
+        <v>2.2449791063395099E-5</v>
+      </c>
+      <c r="AK5">
+        <f>T5*$F$2*10^-9/0.025</f>
+        <v>1.6993926221517918E-2</v>
+      </c>
+      <c r="AL5">
+        <f>AK5*SQRT((U5/T5)^2+($G$2/$F$2)^2)</f>
+        <v>1.7583443663086653E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:38" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>4</v>
       </c>
@@ -5232,7 +5312,7 @@
         <v>0.107593132544175</v>
       </c>
       <c r="Z6">
-        <f t="shared" ref="Z6:Z14" si="13">1/4-1/C6^2</f>
+        <f t="shared" ref="Z6:Z9" si="13">1/4-1/C6^2</f>
         <v>0.1875</v>
       </c>
       <c r="AA6">
@@ -5244,15 +5324,45 @@
         <v>1.8888505180455296E-4</v>
       </c>
       <c r="AC6">
-        <f t="shared" ref="AC6:AC9" si="16">1/3/10^8*SQRT(3*1.38*10^-20/1.67*10^27)</f>
+        <f t="shared" ref="AC6:AC10" si="16">1/3/10^8*SQRT(3*1.38*10^-20/1.67*10^27)</f>
         <v>1.6596659356521332E-5</v>
       </c>
       <c r="AD6">
-        <f t="shared" ref="AD6:AD9" si="17">T6*AC6</f>
+        <f t="shared" ref="AD6:AD14" si="17">T6*AC6</f>
         <v>8.752872249156678E-3</v>
       </c>
-    </row>
-    <row r="7" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE6">
+        <f t="shared" ref="AE6:AE14" si="18">AC6*U6</f>
+        <v>8.7192291005568968E-4</v>
+      </c>
+      <c r="AF6">
+        <v>5.0770299999999997E-3</v>
+      </c>
+      <c r="AG6" s="4">
+        <v>8.4450000000000006E-5</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" ref="AH6:AH11" si="19">V6*AF6*PI()/180</f>
+        <v>5.3270920808476292E-2</v>
+      </c>
+      <c r="AI6">
+        <f t="shared" ref="AI6:AI11" si="20">AH6*SQRT((AG6/AF6)^2+(W6/V6)^2)</f>
+        <v>3.1145186492159424E-3</v>
+      </c>
+      <c r="AJ6">
+        <f t="shared" ref="AJ6:AJ11" si="21">(T6*10^-9)^2/2/PI()/3*10^-8*10^8*10^9</f>
+        <v>1.475566191762765E-5</v>
+      </c>
+      <c r="AK6">
+        <f t="shared" ref="AK6:AK11" si="22">T6*$F$2*10^-9/0.025</f>
+        <v>1.3777389127864593E-2</v>
+      </c>
+      <c r="AL6">
+        <f t="shared" ref="AL6:AL11" si="23">AK6*SQRT((U6/T6)^2+($G$2/$F$2)^2)</f>
+        <v>1.573373698020806E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:38" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>5</v>
       </c>
@@ -5323,7 +5433,7 @@
         <v>0</v>
       </c>
       <c r="Y7">
-        <f t="shared" ref="Y7:Y14" si="18">X7*SQRT((W7/V7)^2+(E7/F7)^2)</f>
+        <f t="shared" ref="Y7:Y14" si="24">X7*SQRT((W7/V7)^2+(E7/F7)^2)</f>
         <v>0</v>
       </c>
       <c r="Z7">
@@ -5346,8 +5456,38 @@
         <f t="shared" si="17"/>
         <v>7.4184974037451931E-3</v>
       </c>
-    </row>
-    <row r="8" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE7">
+        <f t="shared" si="18"/>
+        <v>8.3230197476074242E-4</v>
+      </c>
+      <c r="AF7">
+        <v>2.2336999999999999E-2</v>
+      </c>
+      <c r="AG7">
+        <v>3.368E-4</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="19"/>
+        <v>0.24145478672034631</v>
+      </c>
+      <c r="AI7">
+        <f t="shared" si="20"/>
+        <v>1.3998093285999493E-2</v>
+      </c>
+      <c r="AJ7">
+        <f t="shared" si="21"/>
+        <v>1.059959848605838E-5</v>
+      </c>
+      <c r="AK7">
+        <f t="shared" si="22"/>
+        <v>1.1677026987946528E-2</v>
+      </c>
+      <c r="AL7">
+        <f t="shared" si="23"/>
+        <v>1.4633845128357507E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:38" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>6</v>
       </c>
@@ -5418,7 +5558,7 @@
         <v>0</v>
       </c>
       <c r="Y8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Z8">
@@ -5441,8 +5581,38 @@
         <f t="shared" si="17"/>
         <v>7.2656801540921436E-3</v>
       </c>
-    </row>
-    <row r="9" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE8">
+        <f t="shared" si="18"/>
+        <v>8.2805521682494815E-4</v>
+      </c>
+      <c r="AF8">
+        <v>2.4323000000000001E-2</v>
+      </c>
+      <c r="AG8">
+        <v>1.2850000000000001E-4</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="19"/>
+        <v>0.26368040483440064</v>
+      </c>
+      <c r="AI8">
+        <f t="shared" si="20"/>
+        <v>1.4824261464254382E-2</v>
+      </c>
+      <c r="AJ8">
+        <f t="shared" si="21"/>
+        <v>1.0167403700509148E-5</v>
+      </c>
+      <c r="AK8">
+        <f t="shared" si="22"/>
+        <v>1.1436486208418648E-2</v>
+      </c>
+      <c r="AL8">
+        <f t="shared" si="23"/>
+        <v>1.4514431963801647E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:38" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>7</v>
       </c>
@@ -5513,7 +5683,7 @@
         <v>0</v>
       </c>
       <c r="Y9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Z9">
@@ -5536,8 +5706,38 @@
         <f t="shared" si="17"/>
         <v>6.6458434703356353E-3</v>
       </c>
-    </row>
-    <row r="10" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE9">
+        <f t="shared" si="18"/>
+        <v>8.1148617709771436E-4</v>
+      </c>
+      <c r="AF9">
+        <v>2.7550100000000001E-2</v>
+      </c>
+      <c r="AG9">
+        <v>2.7270000000000001E-4</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="19"/>
+        <v>0.3018694809760965</v>
+      </c>
+      <c r="AI9">
+        <f t="shared" si="20"/>
+        <v>1.715045298793998E-2</v>
+      </c>
+      <c r="AJ9">
+        <f t="shared" si="21"/>
+        <v>8.5066337070314736E-6</v>
+      </c>
+      <c r="AK9">
+        <f t="shared" si="22"/>
+        <v>1.046083719347257E-2</v>
+      </c>
+      <c r="AL9">
+        <f t="shared" si="23"/>
+        <v>1.4045504446773501E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>61</v>
       </c>
@@ -5565,11 +5765,11 @@
         <v>8.7266462599716477E-3</v>
       </c>
       <c r="L10">
-        <f t="shared" ref="L10:L14" si="19">(F10-30)*PI()/180</f>
+        <f t="shared" ref="L10:L14" si="25">(F10-30)*PI()/180</f>
         <v>0.53232542185827048</v>
       </c>
       <c r="M10">
-        <f t="shared" ref="M10:M14" si="20">SQRT(2)*G10*PI()/180</f>
+        <f t="shared" ref="M10:M14" si="26">SQRT(2)*G10*PI()/180</f>
         <v>1.2341341494884351E-2</v>
       </c>
       <c r="N10">
@@ -5581,7 +5781,7 @@
         <v>4.2972062190988454E-3</v>
       </c>
       <c r="P10">
-        <f t="shared" ref="P10:P14" si="21">SIN(L10)</f>
+        <f t="shared" ref="P10:P14" si="27">SIN(L10)</f>
         <v>0.50753836296070409</v>
       </c>
       <c r="Q10">
@@ -5617,11 +5817,49 @@
         <v>0.32765276622287964</v>
       </c>
       <c r="Y10">
+        <f t="shared" si="24"/>
+        <v>1.8411435497487656E-2</v>
+      </c>
+      <c r="AC10">
+        <f>1/3/10^8*SQRT(3*1.38*10^-20/2/1.67*10^27)</f>
+        <v>1.1735610376039397E-5</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="17"/>
+        <v>7.6341800016725579E-3</v>
+      </c>
+      <c r="AE10">
         <f t="shared" si="18"/>
-        <v>1.8411435497487656E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:30" x14ac:dyDescent="0.25">
+        <v>6.6498636466668423E-4</v>
+      </c>
+      <c r="AF10">
+        <v>7.8474600000000005E-3</v>
+      </c>
+      <c r="AG10">
+        <v>5.1119999999999996E-4</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="19"/>
+        <v>7.7073288707950091E-2</v>
+      </c>
+      <c r="AI10">
+        <f t="shared" si="20"/>
+        <v>6.6305536133897036E-3</v>
+      </c>
+      <c r="AJ10">
+        <f t="shared" si="21"/>
+        <v>2.2449791063395099E-5</v>
+      </c>
+      <c r="AK10">
+        <f t="shared" si="22"/>
+        <v>1.6993926221517918E-2</v>
+      </c>
+      <c r="AL10">
+        <f t="shared" si="23"/>
+        <v>1.7583443663086653E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:38" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>4</v>
       </c>
@@ -5646,11 +5884,11 @@
         <v>8.7266462599716477E-3</v>
       </c>
       <c r="L11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.40142572795869574</v>
       </c>
       <c r="M11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1.2341341494884351E-2</v>
       </c>
       <c r="N11">
@@ -5662,7 +5900,7 @@
         <v>5.251826820984574E-3</v>
       </c>
       <c r="P11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0.39073112848927372</v>
       </c>
       <c r="Q11">
@@ -5698,11 +5936,49 @@
         <v>0.20531794255112584</v>
       </c>
       <c r="Y11">
+        <f t="shared" si="24"/>
+        <v>1.1507974722912229E-2</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" ref="AC11:AC14" si="28">1/3/10^8*SQRT(3*1.38*10^-20/2/1.67*10^27)</f>
+        <v>1.1735610376039397E-5</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="17"/>
+        <v>6.1892153222382357E-3</v>
+      </c>
+      <c r="AE11">
         <f t="shared" si="18"/>
-        <v>1.1507974722912229E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:30" x14ac:dyDescent="0.25">
+        <v>6.1654260237228636E-4</v>
+      </c>
+      <c r="AF11">
+        <v>3.70134E-3</v>
+      </c>
+      <c r="AG11">
+        <v>7.2809999999999997E-4</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="19"/>
+        <v>3.8836443752596629E-2</v>
+      </c>
+      <c r="AI11">
+        <f t="shared" si="20"/>
+        <v>7.9436786094752663E-3</v>
+      </c>
+      <c r="AJ11">
+        <f t="shared" si="21"/>
+        <v>1.475566191762765E-5</v>
+      </c>
+      <c r="AK11">
+        <f t="shared" si="22"/>
+        <v>1.3777389127864593E-2</v>
+      </c>
+      <c r="AL11">
+        <f t="shared" si="23"/>
+        <v>1.573373698020806E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:38" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>5</v>
       </c>
@@ -5721,11 +5997,11 @@
         <v>8.7266462599716477E-3</v>
       </c>
       <c r="L12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.32288591161895097</v>
       </c>
       <c r="M12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1.2341341494884351E-2</v>
       </c>
       <c r="N12">
@@ -5737,7 +6013,7 @@
         <v>5.7824507655440983E-3</v>
       </c>
       <c r="P12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0.31730465640509214</v>
       </c>
       <c r="Q12">
@@ -5773,11 +6049,23 @@
         <v>0</v>
       </c>
       <c r="Y12">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="28"/>
+        <v>1.1735610376039397E-5</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="17"/>
+        <v>5.2456698204030238E-3</v>
+      </c>
+      <c r="AE12">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:30" x14ac:dyDescent="0.25">
+        <v>5.8852637034827572E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:38" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>6</v>
       </c>
@@ -5802,11 +6090,11 @@
         <v>8.7266462599716477E-3</v>
       </c>
       <c r="L13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.31415926535897931</v>
       </c>
       <c r="M13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1.2341341494884351E-2</v>
       </c>
       <c r="N13">
@@ -5818,7 +6106,7 @@
         <v>5.8392661034140907E-3</v>
       </c>
       <c r="P13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0.3090169943749474</v>
       </c>
       <c r="Q13">
@@ -5854,11 +6142,23 @@
         <v>-1.0537242653254009</v>
       </c>
       <c r="Y13">
+        <f t="shared" si="24"/>
+        <v>-5.8978832602899128E-2</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="28"/>
+        <v>1.1735610376039397E-5</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="17"/>
+        <v>5.1376117068910746E-3</v>
+      </c>
+      <c r="AE13">
         <f t="shared" si="18"/>
-        <v>-5.8978832602899128E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:30" x14ac:dyDescent="0.25">
+        <v>5.8552345901381774E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:38" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>7</v>
       </c>
@@ -5877,11 +6177,11 @@
         <v>8.7266462599716477E-3</v>
       </c>
       <c r="L14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.27925268031909273</v>
       </c>
       <c r="M14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1.2341341494884351E-2</v>
       </c>
       <c r="N14">
@@ -5893,7 +6193,7 @@
         <v>6.0620378705240089E-3</v>
       </c>
       <c r="P14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0.27563735581699916</v>
       </c>
       <c r="Q14">
@@ -5929,18 +6229,30 @@
         <v>0</v>
       </c>
       <c r="Y14">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="28"/>
+        <v>1.1735610376039397E-5</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="17"/>
+        <v>4.6993209845786659E-3</v>
+      </c>
+      <c r="AE14">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:30" x14ac:dyDescent="0.25">
+        <v>5.7380737866494149E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:38" x14ac:dyDescent="0.25">
       <c r="D15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
     </row>
-    <row r="16" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:38" x14ac:dyDescent="0.25">
       <c r="D16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
